--- a/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-33,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-35,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-14,47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-16,63</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 14,77</t>
+          <t>-28,4; 25,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 11,79</t>
+          <t>-22,69; 25,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 10,63</t>
+          <t>-45,02; 40,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 9,08</t>
+          <t>-21,32; 25,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 6,79</t>
+          <t>-59,96; -4,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 13,58</t>
+          <t>-72,71; 12,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,03</t>
+          <t>-18,0; 18,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,11</t>
+          <t>-32,84; 5,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 7,56</t>
+          <t>-48,0; 12,84</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>-42,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-45,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>-21,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-24,72%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 24,44</t>
+          <t>-42,84; 58,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 19,34</t>
+          <t>-34,03; 57,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 17,66</t>
+          <t>-73,01; 98,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 13,97</t>
+          <t>-23,88; 41,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 10,84</t>
+          <t>-72,13; -8,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 20,98</t>
+          <t>-87,28; 18,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 15,8</t>
+          <t>-24,69; 33,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 11,43</t>
+          <t>-44,23; 8,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 11,68</t>
+          <t>-68,14; 20,38</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,34</t>
+          <t>-22,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>-35,83</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,13</t>
+          <t>-28,41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 33,82</t>
+          <t>-41,72; -0,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 32,34</t>
+          <t>-53,81; -13,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 30,12</t>
+          <t>-42,64; -13,87</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>-35,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>-60,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>-46,0%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 57,54</t>
+          <t>-63,2; -0,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 57,61</t>
+          <t>-86,8; -24,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 50,88</t>
+          <t>-66,85; -21,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-44,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,94</t>
+          <t>-43,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>-44,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 3,76</t>
+          <t>-0,7; 14,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 6,72</t>
+          <t>-4,23; 11,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 12,66</t>
+          <t>-53,85; -31,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 10,07</t>
+          <t>-6,27; 9,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 11,1</t>
+          <t>-8,18; 6,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 28,54</t>
+          <t>-55,63; -26,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 4,69</t>
+          <t>-0,77; 10,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 6,42</t>
+          <t>-4,32; 7,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 17,01</t>
+          <t>-52,79; -34,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-68,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>-63,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>-66,84%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 6,62</t>
+          <t>-1,06; 24,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 11,03</t>
+          <t>-6,13; 19,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 20,91</t>
+          <t>-80,87; -50,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 18,41</t>
+          <t>-8,81; 13,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 20,11</t>
+          <t>-11,64; 10,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 51,67</t>
+          <t>-80,43; -41,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 8,04</t>
+          <t>-1,08; 15,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 11,19</t>
+          <t>-6,23; 11,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 28,31</t>
+          <t>-77,28; -51,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,56</t>
+          <t>-20,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-33,47</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-35,72</t>
+          <t>-11,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,47</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,74</t>
+          <t>-16,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 25,96</t>
+          <t>-5,46; 12,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 25,96</t>
+          <t>-12,71; 5,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 47,59</t>
+          <t>-38,03; -1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 25,73</t>
+          <t>-7,47; 10,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-59,96; -4,41</t>
+          <t>-7,82; 10,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-72,71; 12,4</t>
+          <t>-29,51; 8,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 18,35</t>
+          <t>-3,91; 9,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 5,59</t>
+          <t>-7,55; 6,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 19,52</t>
+          <t>-28,66; -0,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>-4,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-42,74%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-45,61%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,51%</t>
+          <t>-1,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>-25,19%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 58,53</t>
+          <t>-7,88; 21,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 57,05</t>
+          <t>-18,53; 10,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 102,81</t>
+          <t>-55,75; -1,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 41,3</t>
+          <t>-10,67; 17,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-72,13; -8,09</t>
+          <t>-11,43; 17,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 18,45</t>
+          <t>-45,25; 14,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 33,22</t>
+          <t>-5,83; 15,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,23; 8,92</t>
+          <t>-11,3; 10,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,28; 32,07</t>
+          <t>-43,69; -1,45</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>-39,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-20,21</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-29,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 12,45</t>
+          <t>-12,17; 3,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 5,96</t>
+          <t>-9,71; 6,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 21,07</t>
+          <t>-52,03; -20,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 10,49</t>
+          <t>-7,28; 10,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 10,13</t>
+          <t>-5,53; 11,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 16,96</t>
+          <t>-35,94; -3,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 9,38</t>
+          <t>-6,98; 4,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 6,11</t>
+          <t>-5,16; 6,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 14,74</t>
+          <t>-40,37; -16,95</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>-60,17%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-34,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>-47,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 21,03</t>
+          <t>-17,55; 6,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 10,05</t>
+          <t>-14,28; 11,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 34,74</t>
+          <t>-77,49; -30,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 17,93</t>
+          <t>-11,39; 18,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 17,19</t>
+          <t>-9,0; 20,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 28,28</t>
+          <t>-58,83; -4,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,67</t>
+          <t>-10,81; 8,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 10,1</t>
+          <t>-8,09; 11,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 23,56</t>
+          <t>-64,41; -28,58</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-33,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>-26,66</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-30,22</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 10,88</t>
+          <t>-39,88; -25,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 13,51</t>
+          <t>-35,03; -17,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 9,8</t>
+          <t>-36,18; -23,79</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>-51,54%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>-42,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-47,51%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 17,12</t>
+          <t>-61,68; -39,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 21,91</t>
+          <t>-54,7; -28,53</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 15,66</t>
+          <t>-56,47; -37,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 25,96</t>
+          <t>-26,83; 26,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 25,96</t>
+          <t>-21,86; 27,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 40,94</t>
+          <t>-42,98; 42,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 25,73</t>
+          <t>-20,09; 25,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,96; -4,41</t>
+          <t>-59,61; -4,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,71; 12,4</t>
+          <t>-71,86; 11,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 18,35</t>
+          <t>-18,27; 17,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 5,59</t>
+          <t>-34,25; 2,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 12,84</t>
+          <t>-45,61; 15,73</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 58,53</t>
+          <t>-39,38; 59,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 57,05</t>
+          <t>-32,32; 61,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,01; 98,37</t>
+          <t>-74,0; 93,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 41,3</t>
+          <t>-23,5; 41,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,13; -8,09</t>
+          <t>-69,55; -7,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 18,45</t>
+          <t>-88,35; 17,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 33,22</t>
+          <t>-24,31; 28,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,23; 8,92</t>
+          <t>-44,66; 5,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,14; 20,38</t>
+          <t>-66,11; 26,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 9,76</t>
+          <t>-11,46; 8,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 12,96</t>
+          <t>-9,57; 13,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-41,72; -0,59</t>
+          <t>-42,59; -0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 16,06</t>
+          <t>-6,29; 16,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 24,98</t>
+          <t>2,86; 23,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,81; -13,72</t>
+          <t>-52,63; -10,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 10,53</t>
+          <t>-5,53; 9,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 14,33</t>
+          <t>0,44; 15,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-42,64; -13,87</t>
+          <t>-42,29; -12,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 16,55</t>
+          <t>-16,38; 14,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 21,85</t>
+          <t>-13,9; 22,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,2; -0,92</t>
+          <t>-63,47; -1,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 29,01</t>
+          <t>-9,88; 30,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 47,89</t>
+          <t>4,69; 46,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,8; -24,41</t>
+          <t>-85,32; -17,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 18,17</t>
+          <t>-8,39; 16,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 24,38</t>
+          <t>0,57; 26,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,85; -21,86</t>
+          <t>-66,9; -21,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 14,77</t>
+          <t>-0,66; 14,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 11,79</t>
+          <t>-3,94; 11,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-53,85; -31,55</t>
+          <t>-53,81; -31,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 9,08</t>
+          <t>-5,99; 9,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 6,79</t>
+          <t>-7,72; 7,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,63; -26,97</t>
+          <t>-56,18; -27,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,03</t>
+          <t>-0,88; 10,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,11</t>
+          <t>-3,79; 6,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-52,79; -34,67</t>
+          <t>-51,44; -34,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 24,44</t>
+          <t>-0,93; 24,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 19,34</t>
+          <t>-5,91; 18,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,87; -50,55</t>
+          <t>-80,5; -50,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 13,97</t>
+          <t>-8,22; 14,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 10,84</t>
+          <t>-10,95; 10,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,43; -41,75</t>
+          <t>-80,4; -40,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 15,8</t>
+          <t>-1,26; 16,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 11,43</t>
+          <t>-5,54; 10,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,28; -51,81</t>
+          <t>-76,54; -53,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 12,45</t>
+          <t>-6,61; 11,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 5,96</t>
+          <t>-12,19; 6,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -1,12</t>
+          <t>-36,74; -0,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 10,49</t>
+          <t>-6,56; 12,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 10,13</t>
+          <t>-7,38; 10,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 8,99</t>
+          <t>-29,59; 8,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 9,38</t>
+          <t>-3,41; 8,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 6,11</t>
+          <t>-7,92; 5,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-28,66; -0,7</t>
+          <t>-29,2; -2,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 21,03</t>
+          <t>-9,54; 20,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 10,05</t>
+          <t>-17,94; 11,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,75; -1,2</t>
+          <t>-56,38; -2,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 17,93</t>
+          <t>-9,71; 21,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 17,19</t>
+          <t>-10,76; 18,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 14,39</t>
+          <t>-45,2; 14,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,67</t>
+          <t>-4,98; 14,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 10,1</t>
+          <t>-11,7; 9,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,69; -1,45</t>
+          <t>-44,6; -3,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 3,76</t>
+          <t>-12,65; 3,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 6,72</t>
+          <t>-9,71; 6,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -20,63</t>
+          <t>-52,33; -22,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 10,07</t>
+          <t>-6,87; 9,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 11,1</t>
+          <t>-6,09; 10,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -3,1</t>
+          <t>-35,88; -2,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 4,69</t>
+          <t>-6,97; 4,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 6,42</t>
+          <t>-5,49; 6,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-40,37; -16,95</t>
+          <t>-40,72; -18,41</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 6,62</t>
+          <t>-18,36; 5,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 11,03</t>
+          <t>-14,08; 10,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-77,49; -30,87</t>
+          <t>-79,81; -36,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 18,41</t>
+          <t>-10,96; 18,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 20,11</t>
+          <t>-9,54; 19,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-58,83; -4,77</t>
+          <t>-60,85; -4,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 8,04</t>
+          <t>-10,64; 7,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 11,19</t>
+          <t>-8,58; 10,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,41; -28,58</t>
+          <t>-64,83; -29,95</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,79</t>
+          <t>-2,86; 5,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,65</t>
+          <t>-3,54; 4,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-39,88; -25,44</t>
+          <t>-40,21; -24,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 6,68</t>
+          <t>-1,71; 6,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 6,82</t>
+          <t>-1,87; 6,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-35,03; -17,71</t>
+          <t>-34,87; -16,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,86</t>
+          <t>-1,3; 4,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,55</t>
+          <t>-1,54; 4,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-36,18; -23,79</t>
+          <t>-35,7; -24,4</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 9,29</t>
+          <t>-4,24; 9,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 7,54</t>
+          <t>-5,34; 7,55</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-61,68; -39,84</t>
+          <t>-60,95; -38,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 10,87</t>
+          <t>-2,66; 10,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 11,3</t>
+          <t>-2,94; 11,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-54,7; -28,53</t>
+          <t>-54,86; -27,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 7,83</t>
+          <t>-2,04; 8,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 7,31</t>
+          <t>-2,39; 7,02</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,47; -37,96</t>
+          <t>-55,72; -38,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 26,13</t>
+          <t>-27,65; 26,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 27,91</t>
+          <t>-25,02; 27,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 42,56</t>
+          <t>-48,11; 42,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 25,48</t>
+          <t>-21,72; 24,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,61; -4,56</t>
+          <t>-59,03; -5,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,86; 11,65</t>
+          <t>-73,54; 13,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 17,0</t>
+          <t>-18,0; 17,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,25; 2,97</t>
+          <t>-32,64; 5,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,61; 15,73</t>
+          <t>-48,0; 15,21</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 59,17</t>
+          <t>-39,96; 64,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,32; 61,39</t>
+          <t>-34,67; 65,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 93,58</t>
+          <t>-76,02; 94,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 41,76</t>
+          <t>-24,44; 38,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,55; -7,0</t>
+          <t>-69,69; -7,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,35; 17,02</t>
+          <t>-88,78; 19,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 28,65</t>
+          <t>-23,82; 30,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 5,58</t>
+          <t>-43,98; 9,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,11; 26,43</t>
+          <t>-68,73; 25,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 8,46</t>
+          <t>-10,44; 9,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 13,33</t>
+          <t>-7,54; 13,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,59; -0,73</t>
+          <t>-42,94; -1,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 16,05</t>
+          <t>-6,09; 15,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 23,74</t>
+          <t>2,6; 24,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,63; -10,83</t>
+          <t>-53,54; -12,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 9,41</t>
+          <t>-6,05; 9,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 15,18</t>
+          <t>0,19; 15,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -12,92</t>
+          <t>-42,7; -13,14</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 14,92</t>
+          <t>-15,52; 16,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 22,81</t>
+          <t>-11,07; 22,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,47; -1,2</t>
+          <t>-63,91; -1,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 30,31</t>
+          <t>-9,83; 31,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 46,13</t>
+          <t>4,09; 47,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,32; -17,53</t>
+          <t>-86,4; -20,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 16,21</t>
+          <t>-9,06; 16,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 26,33</t>
+          <t>0,31; 27,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,9; -21,58</t>
+          <t>-66,2; -21,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 14,76</t>
+          <t>-0,45; 14,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 11,17</t>
+          <t>-3,39; 11,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-53,81; -31,02</t>
+          <t>-54,6; -31,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 9,43</t>
+          <t>-5,75; 9,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 7,01</t>
+          <t>-7,95; 7,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,18; -27,82</t>
+          <t>-55,19; -26,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 10,22</t>
+          <t>-0,26; 9,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,91</t>
+          <t>-3,69; 7,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-51,44; -34,85</t>
+          <t>-51,73; -34,01</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 24,29</t>
+          <t>-0,51; 24,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 18,42</t>
+          <t>-4,98; 19,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,5; -50,35</t>
+          <t>-81,81; -49,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 14,69</t>
+          <t>-8,17; 14,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 10,81</t>
+          <t>-11,0; 11,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,4; -40,76</t>
+          <t>-80,49; -40,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 16,13</t>
+          <t>-0,35; 15,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 10,78</t>
+          <t>-5,35; 11,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,54; -53,86</t>
+          <t>-77,08; -52,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 11,9</t>
+          <t>-6,07; 11,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 6,93</t>
+          <t>-13,87; 5,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-36,74; -0,55</t>
+          <t>-37,26; -0,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 12,46</t>
+          <t>-6,65; 11,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 10,47</t>
+          <t>-7,61; 10,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 8,57</t>
+          <t>-29,13; 7,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 8,97</t>
+          <t>-3,47; 9,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 5,82</t>
+          <t>-7,88; 5,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-29,2; -2,44</t>
+          <t>-28,66; -2,95</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 20,7</t>
+          <t>-8,46; 20,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 11,22</t>
+          <t>-19,39; 8,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,38; -2,32</t>
+          <t>-56,39; -0,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 21,05</t>
+          <t>-9,69; 18,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 18,21</t>
+          <t>-11,16; 17,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 14,65</t>
+          <t>-43,78; 12,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 14,91</t>
+          <t>-5,09; 15,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 9,57</t>
+          <t>-11,69; 8,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,6; -3,82</t>
+          <t>-43,72; -4,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 3,44</t>
+          <t>-11,84; 3,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 6,49</t>
+          <t>-9,67; 7,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-52,33; -22,47</t>
+          <t>-52,3; -21,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 9,75</t>
+          <t>-7,68; 10,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 10,35</t>
+          <t>-6,47; 11,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-35,88; -2,81</t>
+          <t>-36,27; -4,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 4,41</t>
+          <t>-7,81; 4,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 6,09</t>
+          <t>-5,36; 6,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-40,72; -18,41</t>
+          <t>-40,11; -17,78</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 5,62</t>
+          <t>-16,98; 6,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 10,72</t>
+          <t>-14,23; 11,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,81; -36,17</t>
+          <t>-79,13; -33,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 18,08</t>
+          <t>-12,16; 19,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 19,67</t>
+          <t>-10,74; 21,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,85; -4,93</t>
+          <t>-60,15; -8,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 7,63</t>
+          <t>-11,66; 7,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 10,46</t>
+          <t>-8,35; 11,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,83; -29,95</t>
+          <t>-63,88; -29,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,99</t>
+          <t>-3,14; 5,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,78</t>
+          <t>-3,6; 5,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-40,21; -24,59</t>
+          <t>-40,4; -25,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,6</t>
+          <t>-2,11; 7,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,8</t>
+          <t>-2,3; 6,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -16,8</t>
+          <t>-35,94; -18,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,98</t>
+          <t>-1,02; 5,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,38</t>
+          <t>-1,61; 4,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -24,4</t>
+          <t>-35,87; -24,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 9,67</t>
+          <t>-4,69; 9,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 7,55</t>
+          <t>-5,34; 8,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,95; -38,31</t>
+          <t>-62,14; -39,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,9</t>
+          <t>-3,2; 11,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 11,23</t>
+          <t>-3,53; 11,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-54,86; -27,13</t>
+          <t>-56,29; -29,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 8,1</t>
+          <t>-1,55; 8,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,02</t>
+          <t>-2,49; 7,07</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-55,72; -38,89</t>
+          <t>-55,53; -38,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A03-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-33,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-33,47</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-35,72</t>
+          <t>-16,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,47</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,63</t>
+          <t>-24,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 26,72</t>
+          <t>-5,59; 14,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 27,46</t>
+          <t>-4,29; 15,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 42,73</t>
+          <t>-49,48; -12,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 24,54</t>
+          <t>-11,28; 7,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,03; -5,96</t>
+          <t>-7,02; 12,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,54; 13,17</t>
+          <t>-34,1; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 17,17</t>
+          <t>-5,63; 8,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 5,34</t>
+          <t>-3,0; 10,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 15,21</t>
+          <t>-38,15; -10,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>-53,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-42,74%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,61%</t>
+          <t>-26,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,51%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-24,72%</t>
+          <t>-38,47%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,96; 64,72</t>
+          <t>-8,07; 25,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 65,12</t>
+          <t>-6,55; 26,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 94,84</t>
+          <t>-76,45; -18,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 38,49</t>
+          <t>-16,15; 13,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,69; -7,94</t>
+          <t>-10,71; 21,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,78; 19,42</t>
+          <t>-53,58; 7,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 30,48</t>
+          <t>-8,69; 13,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 9,7</t>
+          <t>-4,46; 18,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,73; 25,18</t>
+          <t>-59,71; -16,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-22,94</t>
+          <t>-43,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,63</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,83</t>
+          <t>-44,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-28,41</t>
+          <t>-44,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 9,59</t>
+          <t>-6,27; 9,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 13,02</t>
+          <t>-8,18; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,94; -1,41</t>
+          <t>-55,55; -27,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 15,95</t>
+          <t>-0,7; 14,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 24,84</t>
+          <t>-4,23; 11,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,54; -12,32</t>
+          <t>-53,87; -31,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 9,67</t>
+          <t>-0,77; 10,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 15,74</t>
+          <t>-4,32; 7,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-42,7; -13,14</t>
+          <t>-52,81; -34,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-35,9%</t>
+          <t>-63,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-60,32%</t>
+          <t>-68,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>-66,93%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 16,84</t>
+          <t>-8,81; 13,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 22,06</t>
+          <t>-11,64; 10,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,91; -1,48</t>
+          <t>-80,25; -41,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 31,06</t>
+          <t>-1,06; 24,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 47,25</t>
+          <t>-6,13; 19,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,4; -20,33</t>
+          <t>-80,75; -49,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 16,91</t>
+          <t>-1,08; 15,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 27,47</t>
+          <t>-6,23; 11,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,2; -21,76</t>
+          <t>-77,27; -51,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-44,45</t>
+          <t>-9,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-43,09</t>
+          <t>-18,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-44,23</t>
+          <t>-14,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 14,78</t>
+          <t>-7,47; 10,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 11,73</t>
+          <t>-7,82; 10,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-54,6; -31,31</t>
+          <t>-27,4; 12,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 9,14</t>
+          <t>-5,46; 12,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 7,29</t>
+          <t>-12,71; 5,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,19; -26,43</t>
+          <t>-36,26; 1,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 9,84</t>
+          <t>-3,91; 9,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 7,46</t>
+          <t>-7,55; 6,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -34,01</t>
+          <t>-27,14; 1,51</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-68,56%</t>
+          <t>-14,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>-4,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-63,72%</t>
+          <t>-28,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>-1,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-66,84%</t>
+          <t>-22,45%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 24,41</t>
+          <t>-10,67; 17,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 19,25</t>
+          <t>-11,43; 17,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,81; -49,34</t>
+          <t>-42,99; 18,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 14,77</t>
+          <t>-7,88; 21,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 11,53</t>
+          <t>-18,53; 10,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,49; -40,02</t>
+          <t>-54,54; 1,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 15,65</t>
+          <t>-5,83; 15,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 11,95</t>
+          <t>-11,3; 10,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,08; -52,06</t>
+          <t>-41,88; 1,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-20,27</t>
+          <t>-19,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,37</t>
+          <t>-38,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-16,17</t>
+          <t>-29,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 11,92</t>
+          <t>-7,28; 10,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 5,04</t>
+          <t>-5,53; 11,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-37,26; -0,24</t>
+          <t>-35,22; -2,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 11,1</t>
+          <t>-12,17; 3,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 10,25</t>
+          <t>-9,71; 6,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 7,61</t>
+          <t>-51,71; -20,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 9,03</t>
+          <t>-6,98; 4,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 5,05</t>
+          <t>-5,16; 6,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-28,66; -2,95</t>
+          <t>-39,91; -16,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-31,43%</t>
+          <t>-33,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>-59,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-25,19%</t>
+          <t>-47,27%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 20,11</t>
+          <t>-11,39; 18,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 8,46</t>
+          <t>-9,0; 20,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,39; -0,51</t>
+          <t>-58,03; -3,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 18,87</t>
+          <t>-17,55; 6,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 17,48</t>
+          <t>-14,28; 11,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 12,91</t>
+          <t>-77,35; -31,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 15,12</t>
+          <t>-10,81; 8,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 8,22</t>
+          <t>-8,09; 11,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,72; -4,8</t>
+          <t>-64,1; -28,22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,42 +1496,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-39,05</t>
+          <t>-25,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-20,21</t>
+          <t>-32,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 3,83</t>
+          <t>-2,24; 6,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 7,02</t>
+          <t>-2,03; 6,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-52,3; -21,42</t>
+          <t>-34,43; -16,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 10,47</t>
+          <t>-2,68; 5,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 11,56</t>
+          <t>-4,07; 4,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -4,67</t>
+          <t>-39,51; -24,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 4,42</t>
+          <t>-1,24; 4,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 6,46</t>
+          <t>-1,62; 4,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-40,11; -17,78</t>
+          <t>-35,59; -22,61</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-60,17%</t>
+          <t>-41,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-34,77%</t>
+          <t>-50,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-47,87%</t>
+          <t>-46,23%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 6,49</t>
+          <t>-3,44; 10,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 11,81</t>
+          <t>-3,09; 11,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,13; -33,98</t>
+          <t>-53,83; -27,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 19,74</t>
+          <t>-4,09; 9,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 21,66</t>
+          <t>-6,16; 7,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,15; -8,21</t>
+          <t>-60,72; -38,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 7,73</t>
+          <t>-1,9; 7,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 11,02</t>
+          <t>-2,5; 7,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,88; -29,33</t>
+          <t>-55,46; -36,14</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-33,17</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-26,66</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-30,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 5,55</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 5,09</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-40,4; -25,01</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 7,16</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 6,81</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-35,94; -18,33</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 5,16</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 4,35</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-35,87; -24,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-51,54%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-42,44%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-47,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 9,05</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 8,27</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-62,14; -39,46</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 11,94</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 11,24</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-56,29; -29,37</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 8,42</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 7,07</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-55,53; -38,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
